--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,21 +5,33 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Dropbox\Списки деталей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Work\Hardware\Bwl.GenericAvrPcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21090" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Список деталей" sheetId="1" r:id="rId1"/>
+    <sheet name="ауау" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Метка</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
   <si>
     <t>C1, C5, C6</t>
   </si>
@@ -27,6 +39,9 @@
     <t>CCAP-10MK-1206</t>
   </si>
   <si>
+    <t>CAP_1206</t>
+  </si>
+  <si>
     <t>C2, C3, C4, C7, C8, C9</t>
   </si>
   <si>
@@ -39,22 +54,40 @@
     <t>CCAP-22PF-1206</t>
   </si>
   <si>
-    <t>D1, D6, D7</t>
-  </si>
-  <si>
-    <t>D-SH1A-SMC</t>
-  </si>
-  <si>
-    <t>D2, D3, D4</t>
+    <t>D1, D9, D18, D19, D20</t>
+  </si>
+  <si>
+    <t>LED-R\G-3MM</t>
+  </si>
+  <si>
+    <t>LED100</t>
+  </si>
+  <si>
+    <t>D2, D3, D4, D5, D6, D7</t>
+  </si>
+  <si>
+    <t>D-ZD6V-SMD</t>
+  </si>
+  <si>
+    <t>SOD-80</t>
+  </si>
+  <si>
+    <t>D8, D11, D12, D13, D16, D17</t>
+  </si>
+  <si>
+    <t>D-SH1A-SMA</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>D10, D14, D15</t>
   </si>
   <si>
     <t>D-SMBJ24CA</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LED-RGB-5MM</t>
+    <t>SMB</t>
   </si>
   <si>
     <t>J1</t>
@@ -63,28 +96,16 @@
     <t>CONN-PLD-6</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>CONN-USB-A-C</t>
+    <t>J2, J4</t>
+  </si>
+  <si>
+    <t>CONN-S-S-V-8X3,5</t>
   </si>
   <si>
     <t>J3</t>
   </si>
   <si>
-    <t>CONN-PLS</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>CONN-S-S-V-15X5</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>CONN-S-S-V-14X3,5</t>
+    <t>Mini-USB</t>
   </si>
   <si>
     <t>K1, K2</t>
@@ -93,58 +114,82 @@
     <t>REL-SBR-5-60-D</t>
   </si>
   <si>
-    <t>L1, L2, L3, L4, L5, L6, L7, L8</t>
+    <t>DIP-6</t>
+  </si>
+  <si>
+    <t>L1, L2, L3, L4, L5, L6, L7</t>
   </si>
   <si>
     <t>IND-10.0mk-1210</t>
   </si>
   <si>
-    <t>LS1</t>
-  </si>
-  <si>
-    <t>BUZZER-5MM</t>
-  </si>
-  <si>
-    <t>R1, R3</t>
+    <t>IND_1210</t>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>КТ805АМ (TIP120)</t>
+  </si>
+  <si>
+    <t>TO-220</t>
+  </si>
+  <si>
+    <t>R1, R3, R12</t>
+  </si>
+  <si>
+    <t>RES-10K-1206</t>
+  </si>
+  <si>
+    <t>RES_1206</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>(5k)</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7, R8, R9</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>RES_2512</t>
+  </si>
+  <si>
+    <t>R10</t>
   </si>
   <si>
     <t>RES-0.1R-2512</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R11</t>
   </si>
   <si>
     <t>RES-1R-1206</t>
   </si>
   <si>
-    <t>R4, R5, R13, R14, R16, R17, R19, R20, R21, R22, R23</t>
+    <t>R13, R19, R20, R21, R22, R23, R24, R25</t>
   </si>
   <si>
     <t>RES-1K-1206</t>
   </si>
   <si>
-    <t>R6, R8, R10, R24, R25</t>
+    <t>R14, R16, R18</t>
   </si>
   <si>
     <t>RES-470R-1206</t>
   </si>
   <si>
-    <t>R7, R9</t>
+    <t>R15, R17</t>
   </si>
   <si>
     <t>RES-100R-2010</t>
   </si>
   <si>
-    <t>R11, R12</t>
-  </si>
-  <si>
-    <t>RES-10K-1206</t>
-  </si>
-  <si>
-    <t>R15, R18</t>
-  </si>
-  <si>
-    <t>RES-0R-1206</t>
+    <t>RES_2010</t>
   </si>
   <si>
     <t>S1, S2</t>
@@ -153,40 +198,52 @@
     <t>BT-TICK-6-6-7</t>
   </si>
   <si>
+    <t>B3F-6</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
     <t>IC-ATMEGA328P-PU</t>
   </si>
   <si>
+    <t>QFP-32/9x9x0.8</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
+    <t>DS18B20</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
     <t>IC-LP2950-5V</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>TO252-3(4)/10x6.6x2.28</t>
+  </si>
+  <si>
+    <t>U4</t>
   </si>
   <si>
     <t>IC-FT232RL</t>
   </si>
   <si>
-    <t>U4</t>
+    <t>SSOP-28</t>
+  </si>
+  <si>
+    <t>U5</t>
   </si>
   <si>
     <t>IC-SN65HVD3082EDR</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>IC-L293D-DIP</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>OPT-TLP281-4</t>
+    <t>SOIC-8/150mil</t>
   </si>
   <si>
     <t>Y1</t>
@@ -195,61 +252,34 @@
     <t>QRZ-KX-K-8MHZ</t>
   </si>
   <si>
-    <t>Метка на плате</t>
-  </si>
-  <si>
-    <t>Наименнование на плате</t>
-  </si>
-  <si>
-    <t>Наименнование в Терра</t>
-  </si>
-  <si>
-    <t>CL31B104KBCNNNC</t>
-  </si>
-  <si>
-    <t>CL31A106KAHNNNE</t>
-  </si>
-  <si>
-    <t>CC1206JRNPO9BN220</t>
+    <t>HC-49</t>
+  </si>
+  <si>
+    <t>Терра</t>
+  </si>
+  <si>
+    <t>BZV55-C6V2</t>
   </si>
   <si>
     <t>S1M</t>
   </si>
   <si>
-    <t>SMBJ24CA-TR</t>
-  </si>
-  <si>
-    <t>DS1097-B</t>
-  </si>
-  <si>
-    <t>2EDGV-5.08-15P-14-00A(H)</t>
-  </si>
-  <si>
-    <t>15EDGVC-3.5-14P-14-00A</t>
-  </si>
-  <si>
-    <t>2EDGK-5.08-15P-14-00A(H)</t>
-  </si>
-  <si>
-    <t>CONN-S-C-V-15X5</t>
-  </si>
-  <si>
-    <t>CONN-S-C-V-14X3,5</t>
-  </si>
-  <si>
-    <t>15EDGK-3.5-14P-14-00A</t>
-  </si>
-  <si>
-    <t>PVG612PbF</t>
+    <t>SMBJ24CA</t>
+  </si>
+  <si>
+    <t>TIP120</t>
+  </si>
+  <si>
+    <t>1734035-1</t>
+  </si>
+  <si>
+    <t>Количество на одну</t>
+  </si>
+  <si>
+    <t>Кол-во на все</t>
   </si>
   <si>
     <t>Кол-во плат</t>
-  </si>
-  <si>
-    <t>Количество на одну плату</t>
-  </si>
-  <si>
-    <t>Кол-во в заказ</t>
   </si>
 </sst>
 </file>
@@ -751,14 +781,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1080,548 +1105,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>F3*$K$2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G30" si="0">F4*$K$2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1734035</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f>$A$3*B3</f>
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E32" si="0">$A$3*B4</f>
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33">
-        <f>$A$3*B33</f>
-        <v>3</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>